--- a/data/population_in_seoul.xlsx
+++ b/data/population_in_seoul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinkyukim/Projects/Data_Study/Data_Python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06BC1A6A-B083-8D4A-99E3-41E516C2C599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F468F-F26A-344C-B667-F7D262EDA287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="6480" windowWidth="27640" windowHeight="16940" xr2:uid="{C9753F9F-B5CD-094C-97A2-260C4B0E2A30}"/>
+    <workbookView xWindow="-32300" yWindow="6460" windowWidth="27640" windowHeight="16940" xr2:uid="{C9753F9F-B5CD-094C-97A2-260C4B0E2A30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>기간</t>
   </si>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFF6D51-F489-0246-9F67-1E1F3950D44A}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,6 +1783,22 @@
         <v>59742</v>
       </c>
     </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
